--- a/NUnit_Selenium/NUnit_Syllabus.xlsx
+++ b/NUnit_Selenium/NUnit_Syllabus.xlsx
@@ -12,8 +12,11 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Attributes" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Attributes!$A$1:$C$46</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -24,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="103">
   <si>
     <t>Attribute</t>
   </si>
@@ -376,6 +379,82 @@
   </si>
   <si>
     <t>The OrderAttribute may be placed on a test method or fixture to specify the order in which tests are run. Ordering is given by the required order argument to the attribute, an int.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The PairwiseAttribute is used on a test to specify that NUnit should generate test cases in such a way that all possible pairs of values are used. This is a well-known approach for combatting the combinatorial explosion of test cases when more than two features (parameters) are involved.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Note that this is not the optimal output. NUnit uses a heuristic algorithm to reduce the number of test cases as much as it can. Improvements may be made in the future.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">The Platform attribute is used to specify platforms for which a test or fixture should be run. Platforms are specified using case-insensitive string values and may be either included or excluded from the run by use of the Include or Exclude properties respectively. </t>
+  </si>
+  <si>
+    <t>Operating System
+Win
+Win32
+Win32S
+Win32Windows
+Win32NT
+WinCE
+Win95
+Win98
+WinMe
+NT3
+NT4
+NT5
+NT6
+Win2K
+WinXP
+Win2003Server
+Vista
+Win2008Server
+Win2008ServerR2
+Windows7
+Win2012Server
+Windows8
+Unix
+Linux
+MacOsX
+XBox
+Architecture
+32-Bit
+32-Bit-Process
+32-Bit-OS (.NET 4.0 and higher only)
+64-Bit
+64-Bit-Process
+64-Bit-OS (.NET 4.0 and higher only)
+Runtime
+Net
+Net-1.0
+Net-1.1
+Net-2.0
+Net-3.0 (1)
+Net-3.5 (2)
+Net-4.0
+Net-4.5 (3)
+NetCF
+SSCLI
+Rotor
+Mono
+Mono-1.0
+Mono-2.0
+Mono-3.0 (4)
+Mono-3.5 (5)
+Mono-4.0</t>
+  </si>
+  <si>
+    <t>The TimeoutAttribute is used to specify a timeout value in milliseconds for a test case. If the test case runs longer than the time specified it is immediately cancelled and reported as a failure, with a message indicating that the timeout was exceeded.</t>
   </si>
 </sst>
 </file>
@@ -785,10 +864,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C46"/>
+  <dimension ref="A1:D46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -944,7 +1023,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="173.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" ht="173.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="9" t="s">
         <v>31</v>
       </c>
@@ -955,7 +1034,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="9" t="s">
         <v>33</v>
       </c>
@@ -966,15 +1045,18 @@
         <v>98</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="3" t="s">
+    <row r="19" spans="1:4" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="10" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C19" s="8" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
         <v>37</v>
       </c>
@@ -982,15 +1064,21 @@
         <v>38</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="3" t="s">
+    <row r="21" spans="1:4" ht="54.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="10" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C21" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
         <v>41</v>
       </c>
@@ -998,7 +1086,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="30.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" ht="30.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
         <v>43</v>
       </c>
@@ -1006,7 +1094,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
         <v>45</v>
       </c>
@@ -1014,7 +1102,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="3" t="s">
         <v>47</v>
       </c>
@@ -1022,7 +1110,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="30.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" ht="30.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
         <v>49</v>
       </c>
@@ -1030,7 +1118,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="3" t="s">
         <v>51</v>
       </c>
@@ -1038,7 +1126,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="30.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" ht="30.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
         <v>53</v>
       </c>
@@ -1046,7 +1134,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="3" t="s">
         <v>55</v>
       </c>
@@ -1054,7 +1142,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
         <v>57</v>
       </c>
@@ -1062,7 +1150,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="3" t="s">
         <v>59</v>
       </c>
@@ -1070,7 +1158,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="30.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" ht="30.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
         <v>61</v>
       </c>
@@ -1078,7 +1166,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:3" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="3" t="s">
         <v>63</v>
       </c>
@@ -1086,7 +1174,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:3" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="s">
         <v>65</v>
       </c>
@@ -1094,7 +1182,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:3" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="3" t="s">
         <v>67</v>
       </c>
@@ -1102,7 +1190,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="30.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:3" ht="30.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="2" t="s">
         <v>69</v>
       </c>
@@ -1110,7 +1198,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="30.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:3" ht="30.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="3" t="s">
         <v>71</v>
       </c>
@@ -1118,7 +1206,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="30.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:3" ht="30.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="2" t="s">
         <v>73</v>
       </c>
@@ -1126,7 +1214,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="3" t="s">
         <v>75</v>
       </c>
@@ -1134,7 +1222,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="30.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:3" ht="30.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="2" t="s">
         <v>77</v>
       </c>
@@ -1142,7 +1230,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="3" t="s">
         <v>79</v>
       </c>
@@ -1150,7 +1238,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:3" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="2" t="s">
         <v>81</v>
       </c>
@@ -1158,7 +1246,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:3" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="3" t="s">
         <v>83</v>
       </c>
@@ -1166,15 +1254,18 @@
         <v>84</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="2" t="s">
+    <row r="44" spans="1:3" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="B44" s="4" t="s">
+      <c r="B44" s="10" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C44" s="8" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="3" t="s">
         <v>87</v>
       </c>
@@ -1182,7 +1273,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:3" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="2" t="s">
         <v>89</v>
       </c>
@@ -1191,6 +1282,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:C46"/>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" display="https://github.com/nunit/docs/wiki/Apartment-Attribute"/>
     <hyperlink ref="A3" r:id="rId2" display="https://github.com/nunit/docs/wiki/Author-Attribute"/>

--- a/NUnit_Selenium/NUnit_Syllabus.xlsx
+++ b/NUnit_Selenium/NUnit_Syllabus.xlsx
@@ -588,7 +588,16 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFE2EFDA"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -864,10 +873,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:D46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -885,7 +895,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" ht="15.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -901,7 +911,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" ht="15.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -920,7 +930,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" ht="15.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
@@ -928,7 +938,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>12</v>
       </c>
@@ -936,7 +946,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
@@ -944,7 +954,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="30.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" ht="30.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>15</v>
       </c>
@@ -985,7 +995,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" ht="15.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>23</v>
       </c>
@@ -1004,7 +1014,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" ht="15.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
         <v>27</v>
       </c>
@@ -1056,7 +1066,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" ht="15.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
         <v>37</v>
       </c>
@@ -1078,7 +1088,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" ht="15.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
         <v>41</v>
       </c>
@@ -1086,7 +1096,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="30.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" ht="30.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
         <v>43</v>
       </c>
@@ -1094,7 +1104,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" ht="15.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
         <v>45</v>
       </c>
@@ -1102,7 +1112,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" ht="15.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="3" t="s">
         <v>47</v>
       </c>
@@ -1110,7 +1120,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="30.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" ht="30.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
         <v>49</v>
       </c>
@@ -1118,7 +1128,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" ht="15.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="3" t="s">
         <v>51</v>
       </c>
@@ -1126,7 +1136,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="30.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" ht="30.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
         <v>53</v>
       </c>
@@ -1134,7 +1144,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" ht="15.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="3" t="s">
         <v>55</v>
       </c>
@@ -1142,7 +1152,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" ht="15.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
         <v>57</v>
       </c>
@@ -1150,7 +1160,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" ht="15.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="3" t="s">
         <v>59</v>
       </c>
@@ -1158,7 +1168,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="30.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" ht="30.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
         <v>61</v>
       </c>
@@ -1166,7 +1176,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:3" ht="15.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="3" t="s">
         <v>63</v>
       </c>
@@ -1174,7 +1184,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:3" ht="15.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="s">
         <v>65</v>
       </c>
@@ -1182,7 +1192,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:3" ht="15.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="3" t="s">
         <v>67</v>
       </c>
@@ -1190,7 +1200,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="30.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:3" ht="30.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="2" t="s">
         <v>69</v>
       </c>
@@ -1198,7 +1208,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="30.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:3" ht="30.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="3" t="s">
         <v>71</v>
       </c>
@@ -1206,7 +1216,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="30.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:3" ht="30.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="2" t="s">
         <v>73</v>
       </c>
@@ -1214,7 +1224,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:3" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="3" t="s">
         <v>75</v>
       </c>
@@ -1222,7 +1232,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="30.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:3" ht="30.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="2" t="s">
         <v>77</v>
       </c>
@@ -1230,7 +1240,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:3" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="3" t="s">
         <v>79</v>
       </c>
@@ -1238,7 +1248,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:3" ht="15.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="2" t="s">
         <v>81</v>
       </c>
@@ -1246,7 +1256,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:3" ht="15.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="3" t="s">
         <v>83</v>
       </c>
@@ -1265,7 +1275,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:3" ht="15.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="3" t="s">
         <v>87</v>
       </c>
@@ -1273,7 +1283,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:3" ht="15.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="2" t="s">
         <v>89</v>
       </c>
@@ -1282,7 +1292,11 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C46"/>
+  <autoFilter ref="A1:C46">
+    <filterColumn colId="0">
+      <colorFilter dxfId="0"/>
+    </filterColumn>
+  </autoFilter>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" display="https://github.com/nunit/docs/wiki/Apartment-Attribute"/>
     <hyperlink ref="A3" r:id="rId2" display="https://github.com/nunit/docs/wiki/Author-Attribute"/>
